--- a/biology/Zoologie/Agdistis_paralia/Agdistis_paralia.xlsx
+++ b/biology/Zoologie/Agdistis_paralia/Agdistis_paralia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agdistis paralia est une espèce de lépidoptères de la famille des Pterophoridae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'envergure est de 19 à 25 mm[2].
-Agdistis paralia a un corps de couleur soit brune, soit grise[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'envergure est de 19 à 25 mm.
+Agdistis paralia a un corps de couleur soit brune, soit grise.
 Les imagos sont en vol d'avril à septembre.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agdistis paralia est présent en Espagne, France[2], Italie (Sardaigne, Sicile), Malte, Grèce, Israël, Turkménistan, Tunisie, Algérie et Maroc ainsi que la Russie méridionale et la Chine (Gansu)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agdistis paralia est présent en Espagne, France, Italie (Sardaigne, Sicile), Malte, Grèce, Israël, Turkménistan, Tunisie, Algérie et Maroc ainsi que la Russie méridionale et la Chine (Gansu).
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille consomme les plantes des espèces Limonium confusum, Limonium densissimum, Limonium minutum (en)[2], Limonium narbonense, Limonium virgatum, Limonium vulgare[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille consomme les plantes des espèces Limonium confusum, Limonium densissimum, Limonium minutum (en), Limonium narbonense, Limonium virgatum, Limonium vulgare.
 </t>
         </is>
       </c>
@@ -606,11 +624,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Agdistis paralia (Zeller, 1847)[5].
-L'espèce a été initialement classée dans le genre Adactyla sous le protonyme Adactyla paralia Zeller, 1847[5],[6].
-Agdistis paralia a pour synonyme[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Agdistis paralia (Zeller, 1847).
+L'espèce a été initialement classée dans le genre Adactyla sous le protonyme Adactyla paralia Zeller, 1847,.
+Agdistis paralia a pour synonyme :
 Adactyla paralia Zeller, 1847</t>
         </is>
       </c>
@@ -639,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de) P.C. Zeller, « Bemerkungen über die auf einer Reise nach Italien und Sicilien beobachteten Schmetterlingsarten », Isis von Oken, Iéna, vol. 1847, no 12,‎ 1847, p. 881-914 (ISSN 2568-0013, lire en ligne, consulté le 24 novembre 2023).</t>
         </is>
